--- a/Documentacao/backlog.xlsx
+++ b/Documentacao/backlog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthur_rosa2\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthur_rosa2\Desktop\Prog\F1 novo\Documentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="72">
   <si>
     <t>Lista de tarefas</t>
   </si>
@@ -230,6 +230,18 @@
   </si>
   <si>
     <t>Inicialização do projeto</t>
+  </si>
+  <si>
+    <t>index.html(front)</t>
+  </si>
+  <si>
+    <t>style.css(front)</t>
+  </si>
+  <si>
+    <t>f1_main.js</t>
+  </si>
+  <si>
+    <t>fi_class.js</t>
   </si>
 </sst>
 </file>
@@ -338,7 +350,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -367,7 +379,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1134,10 +1145,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F27"/>
+  <dimension ref="B1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1410,15 +1421,59 @@
       <c r="F26" s="10"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="7" t="s">
         <v>67</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
